--- a/ppt/지영 _감귤 생산량/2018년 전국감귤생산량 통계청자료에서 감귤필터링.xlsx
+++ b/ppt/지영 _감귤 생산량/2018년 전국감귤생산량 통계청자료에서 감귤필터링.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workR\1-project\ppt\지영 _감귤 생산량\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{412D4A3A-9326-4DA2-BAEA-6CF464DCA916}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAADA759-3DF3-4B04-B600-33F7A238DEF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>16</t>
   </si>
@@ -114,10 +114,6 @@
   </si>
   <si>
     <t>생산량 천t</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주도내생산량 천t</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -129,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -181,65 +177,6 @@
       <color rgb="FF9C0006"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Dotum"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -307,7 +244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,15 +260,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -347,23 +275,8 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -687,35 +600,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL26"/>
+  <dimension ref="A1:AK26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="54" customHeight="1">
+    <row r="1" spans="1:37" ht="54" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="23.1" customHeight="1">
+    </row>
+    <row r="2" spans="1:37" ht="23.1" customHeight="1">
       <c r="A2" s="1">
         <v>70</v>
       </c>
@@ -725,9 +634,8 @@
       <c r="C2" s="3">
         <v>5</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:38" ht="23.1" customHeight="1">
+    </row>
+    <row r="3" spans="1:37" ht="23.1" customHeight="1">
       <c r="A3" s="1">
         <v>75</v>
       </c>
@@ -737,9 +645,8 @@
       <c r="C3" s="3">
         <v>67</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:38" ht="23.1" customHeight="1">
+    </row>
+    <row r="4" spans="1:37" ht="23.1" customHeight="1">
       <c r="A4" s="1">
         <v>80</v>
       </c>
@@ -749,9 +656,8 @@
       <c r="C4" s="3">
         <v>161</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:38" ht="23.1" customHeight="1">
+    </row>
+    <row r="5" spans="1:37" ht="23.1" customHeight="1">
       <c r="A5" s="1">
         <v>85</v>
       </c>
@@ -761,9 +667,8 @@
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:38" ht="23.1" customHeight="1">
+    </row>
+    <row r="6" spans="1:37" ht="23.1" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -773,9 +678,8 @@
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:38" ht="21" customHeight="1">
+    </row>
+    <row r="7" spans="1:37" ht="21" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -785,19 +689,18 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:38" s="19" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A8" s="20">
+    </row>
+    <row r="8" spans="1:37" s="11" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A8" s="12">
         <v>2000</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
@@ -831,9 +734,8 @@
       <c r="AI8"/>
       <c r="AJ8"/>
       <c r="AK8"/>
-      <c r="AL8"/>
-    </row>
-    <row r="9" spans="1:38" ht="23.1" customHeight="1">
+    </row>
+    <row r="9" spans="1:37" ht="23.1" customHeight="1">
       <c r="A9" s="1">
         <v>2001</v>
       </c>
@@ -843,9 +745,8 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:38" ht="23.1" customHeight="1">
+    </row>
+    <row r="10" spans="1:37" ht="23.1" customHeight="1">
       <c r="A10" s="1">
         <v>2002</v>
       </c>
@@ -855,9 +756,8 @@
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:38" ht="23.1" customHeight="1">
+    </row>
+    <row r="11" spans="1:37" ht="23.1" customHeight="1">
       <c r="A11" s="1">
         <v>2003</v>
       </c>
@@ -867,9 +767,8 @@
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:38" ht="23.1" customHeight="1">
+    </row>
+    <row r="12" spans="1:37" ht="23.1" customHeight="1">
       <c r="A12" s="1">
         <v>2004</v>
       </c>
@@ -879,9 +778,8 @@
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:38" ht="23.1" customHeight="1">
+    </row>
+    <row r="13" spans="1:37" ht="23.1" customHeight="1">
       <c r="A13" s="1">
         <v>2005</v>
       </c>
@@ -891,9 +789,8 @@
       <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:38" ht="23.1" customHeight="1">
+    </row>
+    <row r="14" spans="1:37" ht="23.1" customHeight="1">
       <c r="A14" s="1">
         <v>2006</v>
       </c>
@@ -903,21 +800,18 @@
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:38" s="12" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A15" s="10">
+    </row>
+    <row r="15" spans="1:37" s="9" customFormat="1" ht="23.1" customHeight="1">
+      <c r="A15" s="7">
         <v>2007</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="18">
-        <v>747</v>
-      </c>
+      <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
@@ -951,9 +845,8 @@
       <c r="AI15"/>
       <c r="AJ15"/>
       <c r="AK15"/>
-      <c r="AL15"/>
-    </row>
-    <row r="16" spans="1:38" ht="23.1" customHeight="1">
+    </row>
+    <row r="16" spans="1:37" ht="23.1" customHeight="1">
       <c r="A16" s="1">
         <v>2008</v>
       </c>
@@ -963,23 +856,18 @@
       <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="6">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" s="12" customFormat="1" ht="23.1" customHeight="1">
+    </row>
+    <row r="17" spans="1:37" s="9" customFormat="1" ht="23.1" customHeight="1">
       <c r="A17" s="1">
         <v>2009</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="16">
-        <v>741</v>
-      </c>
+      <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
@@ -1013,9 +901,8 @@
       <c r="AI17"/>
       <c r="AJ17"/>
       <c r="AK17"/>
-      <c r="AL17"/>
-    </row>
-    <row r="18" spans="1:38" ht="23.1" customHeight="1">
+    </row>
+    <row r="18" spans="1:37" ht="23.1" customHeight="1">
       <c r="A18" s="1">
         <v>2010</v>
       </c>
@@ -1025,11 +912,8 @@
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="6">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" ht="23.1" customHeight="1">
+    </row>
+    <row r="19" spans="1:37" ht="23.1" customHeight="1">
       <c r="A19" s="1">
         <v>2011</v>
       </c>
@@ -1039,11 +923,8 @@
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="6">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" ht="23.1" customHeight="1">
+    </row>
+    <row r="20" spans="1:37" ht="23.1" customHeight="1">
       <c r="A20" s="1">
         <v>2012</v>
       </c>
@@ -1053,11 +934,8 @@
       <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="13">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" ht="23.1" customHeight="1">
+    </row>
+    <row r="21" spans="1:37" ht="23.1" customHeight="1">
       <c r="A21" s="1">
         <v>2013</v>
       </c>
@@ -1067,23 +945,18 @@
       <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="13">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" s="12" customFormat="1" ht="23.1" customHeight="1">
+    </row>
+    <row r="22" spans="1:37" s="9" customFormat="1" ht="23.1" customHeight="1">
       <c r="A22" s="1">
         <v>2014</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="14">
-        <v>696</v>
-      </c>
+      <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
@@ -1117,9 +990,8 @@
       <c r="AI22"/>
       <c r="AJ22"/>
       <c r="AK22"/>
-      <c r="AL22"/>
-    </row>
-    <row r="23" spans="1:38" ht="23.1" customHeight="1">
+    </row>
+    <row r="23" spans="1:37" ht="23.1" customHeight="1">
       <c r="A23" s="1">
         <v>2015</v>
       </c>
@@ -1129,11 +1001,8 @@
       <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="13">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="24" spans="1:38" ht="23.1" customHeight="1">
+    </row>
+    <row r="24" spans="1:37" ht="23.1" customHeight="1">
       <c r="A24" s="1">
         <v>2016</v>
       </c>
@@ -1143,23 +1012,18 @@
       <c r="C24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="13">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" s="9" customFormat="1" ht="23.1" customHeight="1">
+    </row>
+    <row r="25" spans="1:37" s="6" customFormat="1" ht="23.1" customHeight="1">
       <c r="A25" s="1">
         <v>2017</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="15">
-        <v>576</v>
-      </c>
+      <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
@@ -1193,9 +1057,8 @@
       <c r="AI25"/>
       <c r="AJ25"/>
       <c r="AK25"/>
-      <c r="AL25"/>
-    </row>
-    <row r="26" spans="1:38" ht="18.75" customHeight="1">
+    </row>
+    <row r="26" spans="1:37" ht="18.75" customHeight="1">
       <c r="A26" s="1">
         <v>2018</v>
       </c>
@@ -1204,9 +1067,6 @@
       </c>
       <c r="C26" s="3">
         <v>621</v>
-      </c>
-      <c r="D26" s="13">
-        <v>607</v>
       </c>
     </row>
   </sheetData>
